--- a/2 - Analisis y Diseño/Casos de Prueba/CP - Registro.xlsx
+++ b/2 - Analisis y Diseño/Casos de Prueba/CP - Registro.xlsx
@@ -14,8 +14,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ale Mobile</author>
+  </authors>
+  <commentList>
+    <comment ref="G135" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Debe Existir en el sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Debe Estar registrado previamente en el sistema.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="78">
   <si>
     <t>Datos de prueba</t>
   </si>
@@ -236,6 +275,24 @@
   </si>
   <si>
     <t>Registro - Datos Incompletos (Aplica para todos los campos con un * que indican requerido) Repetir mismo procedimiento para los campos Numero, Localidad, Codigo Postal, y Telefono</t>
+  </si>
+  <si>
+    <t>Registro - Documento Ya Ingresado en el Sistema</t>
+  </si>
+  <si>
+    <t>Los datos de Documento y Tipo de Documento deben existir previamente en el sistema.</t>
+  </si>
+  <si>
+    <t>Informa que hubo un error en la Inscripción y muestra el mensaje: Ud ya se encuentra inscripto!</t>
+  </si>
+  <si>
+    <t>Registro - Email (nombre de usuario) ya existente en el sistema</t>
+  </si>
+  <si>
+    <t>El email (nombre de usuario) debe estar registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Informa que hubo un error en la Inscripción y muestra el mensaje: La dirección de email ingresada ya está en uso, por favor indique una nueva dirección de email.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,6 +386,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1085,35 +1149,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1124,6 +1172,18 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="217" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="26" xfId="217" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,13 +1193,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="24" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="6" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="27" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="7" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="23" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,44 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="23" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="24" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="26" xfId="217" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="27" xfId="217" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="218">
@@ -1785,13 +1849,13 @@
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="15"/>
@@ -2022,16 +2086,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
+      <c r="A12" s="67">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="13">
@@ -2051,36 +2115,36 @@
         <f t="shared" ref="K12:K31" si="1">+IF(I12="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="53">
         <f>+(COUNTIF(J12:J31,1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="50">
         <f>+COUNT(E12:E31)</f>
         <v>20</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="53">
         <f>+(COUNTIF(K12:K31,1))</f>
         <v>0</v>
       </c>
       <c r="O12" s="56">
         <v>0</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="63">
         <f>+L12/M12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="59">
         <f>+N12/M12</f>
         <v>0</v>
       </c>
       <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="1">
         <v>2</v>
       </c>
@@ -2094,21 +2158,21 @@
         <v>34</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="50"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="57"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
@@ -2120,21 +2184,21 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="50"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="57"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="1">
         <v>4</v>
       </c>
@@ -2146,21 +2210,21 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="50"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="57"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="1">
         <v>5</v>
       </c>
@@ -2172,21 +2236,21 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="50"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="57"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="1">
         <v>6</v>
       </c>
@@ -2198,21 +2262,21 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="50"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="57"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="31"/>
     </row>
     <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="1">
         <v>7</v>
       </c>
@@ -2224,21 +2288,21 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="50"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="57"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="31"/>
     </row>
     <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="1">
         <v>8</v>
       </c>
@@ -2250,47 +2314,47 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="50"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="57"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="1">
         <v>9</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="50"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="57"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="67"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="31"/>
     </row>
     <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="1">
         <v>10</v>
       </c>
@@ -2302,21 +2366,21 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="50"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="67"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="31"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="1">
         <v>11</v>
       </c>
@@ -2328,21 +2392,21 @@
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="50"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="57"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="1">
         <v>12</v>
       </c>
@@ -2356,21 +2420,21 @@
         <v>50</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="50"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="57"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="67"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="31"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="1">
         <v>13</v>
       </c>
@@ -2382,21 +2446,21 @@
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="50"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="57"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="67"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="1">
         <v>14</v>
       </c>
@@ -2408,21 +2472,21 @@
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="50"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="57"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="67"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -2434,21 +2498,21 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="57"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="67"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="1">
         <v>16</v>
       </c>
@@ -2460,21 +2524,21 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="50"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="54"/>
       <c r="O27" s="57"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="1">
         <v>17</v>
       </c>
@@ -2484,21 +2548,21 @@
       <c r="G28" s="21"/>
       <c r="H28" s="29"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="50"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="54"/>
       <c r="O28" s="57"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="67"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="1">
         <v>18</v>
       </c>
@@ -2518,19 +2582,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="50"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="57"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="46"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="52"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="1">
         <v>19</v>
       </c>
@@ -2550,26 +2614,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="50"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="57"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="46"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="6">
         <v>20</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="F31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="46" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="42" t="s">
@@ -2584,27 +2648,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="60"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="55"/>
       <c r="O31" s="58"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="75"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="M12:M31"/>
-    <mergeCell ref="N12:N31"/>
-    <mergeCell ref="O12:O31"/>
-    <mergeCell ref="L12:L31"/>
     <mergeCell ref="Q12:Q31"/>
     <mergeCell ref="P12:P31"/>
     <mergeCell ref="A12:A31"/>
     <mergeCell ref="B12:B31"/>
     <mergeCell ref="C12:C31"/>
     <mergeCell ref="D12:D31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="M12:M31"/>
+    <mergeCell ref="N12:N31"/>
+    <mergeCell ref="O12:O31"/>
+    <mergeCell ref="L12:L31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -2622,14 +2686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F146" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2695,13 +2759,13 @@
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="15"/>
@@ -2739,8 +2803,8 @@
         <v>11</v>
       </c>
       <c r="C5" s="18">
-        <f>COUNTIF(A11:A819,"&gt;0")</f>
-        <v>9</v>
+        <f>COUNTIF(A11:A859,"&gt;0")</f>
+        <v>11</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>13</v>
@@ -2765,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="20">
-        <f>SUM(P128:P819)/C5</f>
+        <f>SUM(P168:P859)/C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2791,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="20">
-        <f>SUM(Q128:Q819)/C5</f>
+        <f>SUM(Q168:Q859)/C5</f>
         <v>0</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -2932,16 +2996,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
+      <c r="A12" s="74">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="13">
@@ -2961,36 +3025,36 @@
         <f t="shared" ref="K12" si="1">+IF(I12="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="53">
         <f>+(COUNTIF(J12:J23,1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12" s="50">
         <f>+COUNT(E12:E23)</f>
         <v>12</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="53">
         <f>+(COUNTIF(K12:K23,1))</f>
         <v>0</v>
       </c>
       <c r="O12" s="56">
         <v>0</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="63">
         <f>+L12/M12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="63">
         <f>+N12/M12</f>
         <v>0</v>
       </c>
       <c r="R12" s="40"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="1">
         <v>2</v>
       </c>
@@ -3004,21 +3068,21 @@
         <v>34</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="50"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="57"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
       <c r="R13" s="34"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
@@ -3030,21 +3094,21 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="57"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
       <c r="R14" s="34"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="1">
         <v>4</v>
       </c>
@@ -3056,21 +3120,21 @@
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="50"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="57"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
       <c r="R15" s="34"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="1">
         <v>5</v>
       </c>
@@ -3082,21 +3146,21 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="57"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
       <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="63"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="1">
         <v>6</v>
       </c>
@@ -3108,21 +3172,21 @@
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="50"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="57"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
       <c r="R17" s="34"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="1">
         <v>7</v>
       </c>
@@ -3134,21 +3198,21 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="50"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="57"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
       <c r="R18" s="34"/>
     </row>
     <row r="19" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="1">
         <v>8</v>
       </c>
@@ -3160,21 +3224,21 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="50"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="57"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="1">
         <v>9</v>
       </c>
@@ -3186,21 +3250,21 @@
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="50"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="57"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
       <c r="R20" s="34"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="1">
         <v>10</v>
       </c>
@@ -3212,21 +3276,21 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="34"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="1">
         <v>11</v>
       </c>
@@ -3238,21 +3302,21 @@
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="50"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="57"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="34"/>
     </row>
     <row r="23" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="63"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="1">
         <v>12</v>
       </c>
@@ -3266,27 +3330,27 @@
         <v>63</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="57"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="34"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61">
+      <c r="A24" s="74">
         <v>2</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="13">
@@ -3306,36 +3370,36 @@
         <f t="shared" ref="K24" si="3">+IF(I24="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="53">
         <f>+(COUNTIF(J24:J35,1))</f>
         <v>0</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="50">
         <f>+COUNT(E24:E35)</f>
         <v>12</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="53">
         <f>+(COUNTIF(K24:K35,1))</f>
         <v>0</v>
       </c>
       <c r="O24" s="56">
         <v>0</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="63">
         <f>+L24/M24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="63">
         <f>+N24/M24</f>
         <v>0</v>
       </c>
       <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="63"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="1">
         <v>2</v>
       </c>
@@ -3349,21 +3413,21 @@
         <v>34</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="50"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="57"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="34"/>
     </row>
     <row r="26" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="63"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -3375,21 +3439,21 @@
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="57"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="34"/>
     </row>
     <row r="27" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="63"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
@@ -3401,21 +3465,21 @@
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="54"/>
       <c r="O27" s="57"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="34"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="63"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="1">
         <v>5</v>
       </c>
@@ -3427,21 +3491,21 @@
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="54"/>
       <c r="O28" s="57"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="63"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="1">
         <v>6</v>
       </c>
@@ -3453,21 +3517,21 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="50"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="57"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
       <c r="R29" s="34"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="1">
         <v>7</v>
       </c>
@@ -3479,21 +3543,21 @@
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="50"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="57"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="34"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="63"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="1">
         <v>8</v>
       </c>
@@ -3505,21 +3569,21 @@
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="50"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="57"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
       <c r="R31" s="34"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="63"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="1">
         <v>9</v>
       </c>
@@ -3531,21 +3595,21 @@
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="50"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="57"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
       <c r="R32" s="34"/>
     </row>
     <row r="33" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="63"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="1">
         <v>10</v>
       </c>
@@ -3557,21 +3621,21 @@
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="50"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="57"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="34"/>
     </row>
     <row r="34" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="63"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="1">
         <v>11</v>
       </c>
@@ -3583,21 +3647,21 @@
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="50"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="57"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
       <c r="R34" s="34"/>
     </row>
     <row r="35" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="63"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="1">
         <v>12</v>
       </c>
@@ -3611,27 +3675,27 @@
         <v>68</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="50"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="54"/>
       <c r="O35" s="57"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
       <c r="R35" s="34"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61">
+      <c r="A36" s="74">
         <v>3</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="13">
@@ -3651,36 +3715,36 @@
         <f t="shared" ref="K36" si="5">+IF(I36="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="53">
         <f>+(COUNTIF(J36:J47,1))</f>
         <v>0</v>
       </c>
-      <c r="M36" s="54">
+      <c r="M36" s="50">
         <f>+COUNT(E36:E47)</f>
         <v>12</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="53">
         <f>+(COUNTIF(K36:K47,1))</f>
         <v>0</v>
       </c>
       <c r="O36" s="56">
         <v>0</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="63">
         <f>+L36/M36</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="43">
+      <c r="Q36" s="63">
         <f>+N36/M36</f>
         <v>0</v>
       </c>
       <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="63"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="1">
         <v>2</v>
       </c>
@@ -3694,21 +3758,21 @@
         <v>34</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="50"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="57"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
       <c r="R37" s="34"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="1">
         <v>3</v>
       </c>
@@ -3718,21 +3782,21 @@
       <c r="G38" s="21"/>
       <c r="H38" s="12"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="50"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="54"/>
       <c r="O38" s="57"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
       <c r="R38" s="34"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="63"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="1">
         <v>4</v>
       </c>
@@ -3744,21 +3808,21 @@
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="50"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="54"/>
       <c r="O39" s="57"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
       <c r="R39" s="34"/>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="63"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="1">
         <v>5</v>
       </c>
@@ -3770,21 +3834,21 @@
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="50"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="54"/>
       <c r="O40" s="57"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
       <c r="R40" s="34"/>
     </row>
     <row r="41" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="76"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="63"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="1">
         <v>6</v>
       </c>
@@ -3796,21 +3860,21 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="50"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="54"/>
       <c r="O41" s="57"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
       <c r="R41" s="34"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="76"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="63"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="1">
         <v>7</v>
       </c>
@@ -3822,21 +3886,21 @@
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="50"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="54"/>
       <c r="O42" s="57"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
       <c r="R42" s="34"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="63"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="1">
         <v>8</v>
       </c>
@@ -3848,21 +3912,21 @@
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="50"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="54"/>
       <c r="O43" s="57"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
       <c r="R43" s="34"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="1">
         <v>9</v>
       </c>
@@ -3874,21 +3938,21 @@
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="50"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="54"/>
       <c r="O44" s="57"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
       <c r="R44" s="34"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="76"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="63"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="1">
         <v>10</v>
       </c>
@@ -3900,21 +3964,21 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="50"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="57"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
       <c r="R45" s="34"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="76"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="63"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="1">
         <v>11</v>
       </c>
@@ -3926,21 +3990,21 @@
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="50"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="54"/>
       <c r="O46" s="57"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
       <c r="R46" s="34"/>
     </row>
     <row r="47" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="63"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="1">
         <v>12</v>
       </c>
@@ -3954,27 +4018,27 @@
         <v>70</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="50"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="54"/>
       <c r="O47" s="57"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="66"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
       <c r="R47" s="34"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61">
+      <c r="A48" s="74">
         <v>3</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="13">
@@ -3994,36 +4058,36 @@
         <f t="shared" ref="K48" si="7">+IF(I48="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="49">
+      <c r="L48" s="53">
         <f>+(COUNTIF(J48:J59,1))</f>
         <v>0</v>
       </c>
-      <c r="M48" s="54">
+      <c r="M48" s="50">
         <f>+COUNT(E48:E59)</f>
         <v>12</v>
       </c>
-      <c r="N48" s="49">
+      <c r="N48" s="53">
         <f>+(COUNTIF(K48:K59,1))</f>
         <v>0</v>
       </c>
       <c r="O48" s="56">
         <v>0</v>
       </c>
-      <c r="P48" s="43">
+      <c r="P48" s="63">
         <f>+L48/M48</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="43">
+      <c r="Q48" s="63">
         <f>+N48/M48</f>
         <v>0</v>
       </c>
       <c r="R48" s="40"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="76"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="63"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="1">
         <v>2</v>
       </c>
@@ -4037,21 +4101,21 @@
         <v>34</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="50"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="54"/>
       <c r="O49" s="57"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="66"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
       <c r="R49" s="34"/>
     </row>
     <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="76"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="63"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="1">
         <v>3</v>
       </c>
@@ -4063,21 +4127,21 @@
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="50"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="54"/>
       <c r="O50" s="57"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
       <c r="R50" s="34"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="76"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="63"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="1">
         <v>4</v>
       </c>
@@ -4087,21 +4151,21 @@
       <c r="G51" s="29"/>
       <c r="H51" s="12"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="50"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="57"/>
-      <c r="P51" s="66"/>
-      <c r="Q51" s="66"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
       <c r="R51" s="34"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="63"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="1">
         <v>5</v>
       </c>
@@ -4113,21 +4177,21 @@
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="50"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="54"/>
       <c r="O52" s="57"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
       <c r="R52" s="34"/>
     </row>
     <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="76"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="63"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="1">
         <v>6</v>
       </c>
@@ -4139,21 +4203,21 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="50"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="54"/>
       <c r="O53" s="57"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="66"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
       <c r="R53" s="34"/>
     </row>
     <row r="54" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="76"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="63"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="1">
         <v>7</v>
       </c>
@@ -4165,21 +4229,21 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="50"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="54"/>
       <c r="O54" s="57"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
       <c r="R54" s="34"/>
     </row>
     <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="76"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="63"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="1">
         <v>8</v>
       </c>
@@ -4191,21 +4255,21 @@
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="50"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="54"/>
       <c r="O55" s="57"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
       <c r="R55" s="34"/>
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="63"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="1">
         <v>9</v>
       </c>
@@ -4217,21 +4281,21 @@
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="50"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="54"/>
       <c r="O56" s="57"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
       <c r="R56" s="34"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="76"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="63"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="1">
         <v>10</v>
       </c>
@@ -4243,21 +4307,21 @@
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="50"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="54"/>
       <c r="O57" s="57"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
       <c r="R57" s="34"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="76"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="63"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="1">
         <v>11</v>
       </c>
@@ -4269,21 +4333,21 @@
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="50"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="54"/>
       <c r="O58" s="57"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
       <c r="R58" s="34"/>
     </row>
     <row r="59" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="63"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="1">
         <v>12</v>
       </c>
@@ -4297,27 +4361,27 @@
         <v>70</v>
       </c>
       <c r="I59" s="5"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="50"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="54"/>
       <c r="O59" s="57"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
       <c r="R59" s="34"/>
     </row>
     <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61">
+      <c r="A60" s="74">
         <v>4</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="13">
@@ -4337,36 +4401,36 @@
         <f t="shared" ref="K60" si="9">+IF(I60="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="53">
         <f>+(COUNTIF(J60:J71,1))</f>
         <v>0</v>
       </c>
-      <c r="M60" s="54">
+      <c r="M60" s="50">
         <f>+COUNT(E60:E71)</f>
         <v>12</v>
       </c>
-      <c r="N60" s="49">
+      <c r="N60" s="53">
         <f>+(COUNTIF(K60:K71,1))</f>
         <v>0</v>
       </c>
       <c r="O60" s="56">
         <v>0</v>
       </c>
-      <c r="P60" s="43">
+      <c r="P60" s="63">
         <f>+L60/M60</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="43">
+      <c r="Q60" s="63">
         <f>+N60/M60</f>
         <v>0</v>
       </c>
       <c r="R60" s="40"/>
     </row>
     <row r="61" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="76"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="63"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="1">
         <v>2</v>
       </c>
@@ -4380,21 +4444,21 @@
         <v>34</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="50"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="54"/>
       <c r="O61" s="57"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
       <c r="R61" s="34"/>
     </row>
     <row r="62" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="76"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="77"/>
       <c r="E62" s="1">
         <v>3</v>
       </c>
@@ -4406,21 +4470,21 @@
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="50"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="54"/>
       <c r="O62" s="57"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
       <c r="R62" s="34"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="76"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="63"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="1">
         <v>4</v>
       </c>
@@ -4432,21 +4496,21 @@
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="50"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="54"/>
       <c r="O63" s="57"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
       <c r="R63" s="34"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="76"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="63"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="77"/>
       <c r="E64" s="1">
         <v>5</v>
       </c>
@@ -4458,21 +4522,21 @@
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="50"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="54"/>
       <c r="O64" s="57"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
       <c r="R64" s="34"/>
     </row>
     <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="76"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="63"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="1">
         <v>6</v>
       </c>
@@ -4484,21 +4548,21 @@
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="50"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="54"/>
       <c r="O65" s="57"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
       <c r="R65" s="34"/>
     </row>
     <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="76"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="63"/>
+      <c r="A66" s="75"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="1">
         <v>7</v>
       </c>
@@ -4510,21 +4574,21 @@
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="50"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="54"/>
       <c r="O66" s="57"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
       <c r="R66" s="34"/>
     </row>
     <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="76"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="63"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="77"/>
       <c r="E67" s="1">
         <v>8</v>
       </c>
@@ -4534,21 +4598,21 @@
       <c r="G67" s="29"/>
       <c r="H67" s="12"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="50"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="54"/>
       <c r="O67" s="57"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
       <c r="R67" s="34"/>
     </row>
     <row r="68" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="76"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="63"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="77"/>
       <c r="E68" s="1">
         <v>9</v>
       </c>
@@ -4560,21 +4624,21 @@
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="50"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="54"/>
       <c r="O68" s="57"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
       <c r="R68" s="34"/>
     </row>
     <row r="69" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="76"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="63"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="77"/>
       <c r="E69" s="1">
         <v>10</v>
       </c>
@@ -4586,21 +4650,21 @@
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="50"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="54"/>
       <c r="O69" s="57"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
       <c r="R69" s="34"/>
     </row>
     <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="76"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="63"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="77"/>
       <c r="E70" s="1">
         <v>11</v>
       </c>
@@ -4612,21 +4676,21 @@
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="50"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="54"/>
       <c r="O70" s="57"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="66"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
       <c r="R70" s="34"/>
     </row>
     <row r="71" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="76"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="63"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="1">
         <v>12</v>
       </c>
@@ -4640,27 +4704,27 @@
         <v>70</v>
       </c>
       <c r="I71" s="5"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="50"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="57"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
       <c r="R71" s="34"/>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="61">
+      <c r="A72" s="74">
         <v>5</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="62" t="s">
+      <c r="D72" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="13">
@@ -4680,36 +4744,36 @@
         <f t="shared" ref="K72" si="11">+IF(I72="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L72" s="49">
+      <c r="L72" s="53">
         <f>+(COUNTIF(J72:J83,1))</f>
         <v>0</v>
       </c>
-      <c r="M72" s="54">
+      <c r="M72" s="50">
         <f>+COUNT(E72:E83)</f>
         <v>12</v>
       </c>
-      <c r="N72" s="49">
+      <c r="N72" s="53">
         <f>+(COUNTIF(K72:K83,1))</f>
         <v>0</v>
       </c>
       <c r="O72" s="56">
         <v>0</v>
       </c>
-      <c r="P72" s="43">
+      <c r="P72" s="63">
         <f>+L72/M72</f>
         <v>0</v>
       </c>
-      <c r="Q72" s="43">
+      <c r="Q72" s="63">
         <f>+N72/M72</f>
         <v>0</v>
       </c>
       <c r="R72" s="40"/>
     </row>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="76"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="63"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="77"/>
       <c r="E73" s="1">
         <v>2</v>
       </c>
@@ -4723,21 +4787,21 @@
         <v>34</v>
       </c>
       <c r="I73" s="5"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="50"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="54"/>
       <c r="O73" s="57"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="66"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
       <c r="R73" s="34"/>
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="76"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="63"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="77"/>
       <c r="E74" s="1">
         <v>3</v>
       </c>
@@ -4749,21 +4813,21 @@
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="50"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="54"/>
       <c r="O74" s="57"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
       <c r="R74" s="34"/>
     </row>
     <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="76"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="63"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="77"/>
       <c r="E75" s="1">
         <v>4</v>
       </c>
@@ -4775,21 +4839,21 @@
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="50"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="54"/>
       <c r="O75" s="57"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="66"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
       <c r="R75" s="34"/>
     </row>
     <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="76"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="63"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="1">
         <v>5</v>
       </c>
@@ -4801,21 +4865,21 @@
       </c>
       <c r="H76" s="29"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="50"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="54"/>
       <c r="O76" s="57"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
       <c r="R76" s="34"/>
     </row>
     <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="76"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="63"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="77"/>
       <c r="E77" s="1">
         <v>6</v>
       </c>
@@ -4827,21 +4891,21 @@
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="50"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="54"/>
       <c r="O77" s="57"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
       <c r="R77" s="34"/>
     </row>
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="76"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="63"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="77"/>
       <c r="E78" s="1">
         <v>7</v>
       </c>
@@ -4853,21 +4917,21 @@
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="50"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="54"/>
       <c r="O78" s="57"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
       <c r="R78" s="34"/>
     </row>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="76"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="63"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="77"/>
       <c r="E79" s="1">
         <v>8</v>
       </c>
@@ -4879,21 +4943,21 @@
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="50"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="54"/>
       <c r="O79" s="57"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
       <c r="R79" s="34"/>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="76"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="63"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="77"/>
       <c r="E80" s="1">
         <v>9</v>
       </c>
@@ -4903,21 +4967,21 @@
       <c r="G80" s="41"/>
       <c r="H80" s="29"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="50"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="54"/>
       <c r="O80" s="57"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="64"/>
       <c r="R80" s="34"/>
     </row>
     <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="76"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="63"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="77"/>
       <c r="E81" s="1">
         <v>10</v>
       </c>
@@ -4929,21 +4993,21 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="50"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="54"/>
       <c r="O81" s="57"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
       <c r="R81" s="34"/>
     </row>
     <row r="82" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="76"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="63"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="77"/>
       <c r="E82" s="1">
         <v>11</v>
       </c>
@@ -4955,21 +5019,21 @@
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="50"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="54"/>
       <c r="O82" s="57"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="66"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
       <c r="R82" s="34"/>
     </row>
     <row r="83" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="63"/>
+      <c r="A83" s="75"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="77"/>
       <c r="E83" s="1">
         <v>12</v>
       </c>
@@ -4983,27 +5047,27 @@
         <v>70</v>
       </c>
       <c r="I83" s="5"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="50"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="54"/>
       <c r="O83" s="57"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
       <c r="R83" s="34"/>
     </row>
     <row r="84" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="61">
+      <c r="A84" s="74">
         <v>6</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="62" t="s">
+      <c r="D84" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E84" s="13">
@@ -5023,36 +5087,36 @@
         <f t="shared" ref="K84" si="13">+IF(I84="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L84" s="49">
+      <c r="L84" s="53">
         <f>+(COUNTIF(J84:J95,1))</f>
         <v>0</v>
       </c>
-      <c r="M84" s="54">
+      <c r="M84" s="50">
         <f>+COUNT(E84:E95)</f>
         <v>12</v>
       </c>
-      <c r="N84" s="49">
+      <c r="N84" s="53">
         <f>+(COUNTIF(K84:K95,1))</f>
         <v>0</v>
       </c>
       <c r="O84" s="56">
         <v>0</v>
       </c>
-      <c r="P84" s="43">
+      <c r="P84" s="63">
         <f>+L84/M84</f>
         <v>0</v>
       </c>
-      <c r="Q84" s="43">
+      <c r="Q84" s="63">
         <f>+N84/M84</f>
         <v>0</v>
       </c>
       <c r="R84" s="40"/>
     </row>
     <row r="85" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="76"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="63"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="1">
         <v>2</v>
       </c>
@@ -5066,21 +5130,21 @@
         <v>34</v>
       </c>
       <c r="I85" s="5"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="50"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="54"/>
       <c r="O85" s="57"/>
-      <c r="P85" s="66"/>
-      <c r="Q85" s="66"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
       <c r="R85" s="34"/>
     </row>
     <row r="86" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="76"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="63"/>
+      <c r="A86" s="75"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="77"/>
       <c r="E86" s="1">
         <v>3</v>
       </c>
@@ -5092,21 +5156,21 @@
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="50"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="54"/>
       <c r="O86" s="57"/>
-      <c r="P86" s="66"/>
-      <c r="Q86" s="66"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
       <c r="R86" s="34"/>
     </row>
     <row r="87" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="76"/>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="63"/>
+      <c r="A87" s="75"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="77"/>
       <c r="E87" s="1">
         <v>4</v>
       </c>
@@ -5116,21 +5180,21 @@
       <c r="G87" s="29"/>
       <c r="H87" s="12"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="50"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="54"/>
       <c r="O87" s="57"/>
-      <c r="P87" s="66"/>
-      <c r="Q87" s="66"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
       <c r="R87" s="34"/>
     </row>
     <row r="88" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="76"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="63"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="1">
         <v>5</v>
       </c>
@@ -5142,21 +5206,21 @@
       </c>
       <c r="H88" s="29"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="50"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="54"/>
       <c r="O88" s="57"/>
-      <c r="P88" s="66"/>
-      <c r="Q88" s="66"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
       <c r="R88" s="34"/>
     </row>
     <row r="89" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="76"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="63"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="77"/>
       <c r="E89" s="1">
         <v>6</v>
       </c>
@@ -5168,21 +5232,21 @@
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="50"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="54"/>
       <c r="O89" s="57"/>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="66"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="64"/>
       <c r="R89" s="34"/>
     </row>
     <row r="90" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="76"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="63"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="77"/>
       <c r="E90" s="1">
         <v>7</v>
       </c>
@@ -5194,21 +5258,21 @@
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="50"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="54"/>
       <c r="O90" s="57"/>
-      <c r="P90" s="66"/>
-      <c r="Q90" s="66"/>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="64"/>
       <c r="R90" s="34"/>
     </row>
     <row r="91" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="76"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="63"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="1">
         <v>8</v>
       </c>
@@ -5220,21 +5284,21 @@
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="50"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="54"/>
       <c r="O91" s="57"/>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="66"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64"/>
       <c r="R91" s="34"/>
     </row>
     <row r="92" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="76"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="63"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="1">
         <v>9</v>
       </c>
@@ -5246,21 +5310,21 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="50"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="54"/>
       <c r="O92" s="57"/>
-      <c r="P92" s="66"/>
-      <c r="Q92" s="66"/>
+      <c r="P92" s="64"/>
+      <c r="Q92" s="64"/>
       <c r="R92" s="34"/>
     </row>
     <row r="93" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="76"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="63"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="77"/>
       <c r="E93" s="1">
         <v>10</v>
       </c>
@@ -5270,21 +5334,21 @@
       <c r="G93" s="21"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="50"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="54"/>
       <c r="O93" s="57"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
+      <c r="P93" s="64"/>
+      <c r="Q93" s="64"/>
       <c r="R93" s="34"/>
     </row>
     <row r="94" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="76"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="63"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="77"/>
       <c r="E94" s="1">
         <v>11</v>
       </c>
@@ -5296,21 +5360,21 @@
       </c>
       <c r="H94" s="29"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="50"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="54"/>
       <c r="O94" s="57"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="66"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
       <c r="R94" s="34"/>
     </row>
     <row r="95" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="63"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="77"/>
       <c r="E95" s="1">
         <v>12</v>
       </c>
@@ -5324,27 +5388,27 @@
         <v>70</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="50"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="54"/>
       <c r="O95" s="57"/>
-      <c r="P95" s="66"/>
-      <c r="Q95" s="66"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="64"/>
       <c r="R95" s="34"/>
     </row>
     <row r="96" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="61">
+      <c r="A96" s="74">
         <v>7</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="62" t="s">
+      <c r="D96" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E96" s="13">
@@ -5364,36 +5428,36 @@
         <f t="shared" ref="K96" si="15">+IF(I96="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L96" s="49">
+      <c r="L96" s="53">
         <f>+(COUNTIF(J96:J107,1))</f>
         <v>0</v>
       </c>
-      <c r="M96" s="54">
+      <c r="M96" s="50">
         <f>+COUNT(E96:E107)</f>
         <v>12</v>
       </c>
-      <c r="N96" s="49">
+      <c r="N96" s="53">
         <f>+(COUNTIF(K96:K107,1))</f>
         <v>0</v>
       </c>
       <c r="O96" s="56">
         <v>0</v>
       </c>
-      <c r="P96" s="43">
+      <c r="P96" s="63">
         <f>+L96/M96</f>
         <v>0</v>
       </c>
-      <c r="Q96" s="43">
+      <c r="Q96" s="63">
         <f>+N96/M96</f>
         <v>0</v>
       </c>
       <c r="R96" s="40"/>
     </row>
     <row r="97" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="76"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="63"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="77"/>
       <c r="E97" s="1">
         <v>2</v>
       </c>
@@ -5407,21 +5471,21 @@
         <v>34</v>
       </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="50"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="54"/>
       <c r="O97" s="57"/>
-      <c r="P97" s="66"/>
-      <c r="Q97" s="66"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
       <c r="R97" s="34"/>
     </row>
     <row r="98" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="76"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="63"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="77"/>
       <c r="E98" s="1">
         <v>3</v>
       </c>
@@ -5433,21 +5497,21 @@
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="50"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="54"/>
       <c r="O98" s="57"/>
-      <c r="P98" s="66"/>
-      <c r="Q98" s="66"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="64"/>
       <c r="R98" s="34"/>
     </row>
     <row r="99" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="76"/>
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="63"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="77"/>
       <c r="E99" s="1">
         <v>4</v>
       </c>
@@ -5459,21 +5523,21 @@
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="50"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="54"/>
       <c r="O99" s="57"/>
-      <c r="P99" s="66"/>
-      <c r="Q99" s="66"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="64"/>
       <c r="R99" s="34"/>
     </row>
     <row r="100" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="76"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="63"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="77"/>
       <c r="E100" s="1">
         <v>5</v>
       </c>
@@ -5485,21 +5549,21 @@
       </c>
       <c r="H100" s="29"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="50"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="54"/>
       <c r="O100" s="57"/>
-      <c r="P100" s="66"/>
-      <c r="Q100" s="66"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="64"/>
       <c r="R100" s="34"/>
     </row>
     <row r="101" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="76"/>
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="63"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="77"/>
       <c r="E101" s="1">
         <v>6</v>
       </c>
@@ -5511,21 +5575,21 @@
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="50"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="54"/>
       <c r="O101" s="57"/>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="64"/>
       <c r="R101" s="34"/>
     </row>
     <row r="102" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="76"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="63"/>
+      <c r="A102" s="75"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="77"/>
       <c r="E102" s="1">
         <v>7</v>
       </c>
@@ -5537,21 +5601,21 @@
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="50"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="54"/>
       <c r="O102" s="57"/>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="66"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="64"/>
       <c r="R102" s="34"/>
     </row>
     <row r="103" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="76"/>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="63"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="77"/>
       <c r="E103" s="1">
         <v>8</v>
       </c>
@@ -5561,21 +5625,21 @@
       <c r="G103" s="29"/>
       <c r="H103" s="12"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="50"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="54"/>
       <c r="O103" s="57"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
       <c r="R103" s="34"/>
     </row>
     <row r="104" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="76"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="63"/>
+      <c r="A104" s="75"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="77"/>
       <c r="E104" s="1">
         <v>9</v>
       </c>
@@ -5587,21 +5651,21 @@
       </c>
       <c r="H104" s="29"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="50"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="54"/>
       <c r="O104" s="57"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
+      <c r="P104" s="64"/>
+      <c r="Q104" s="64"/>
       <c r="R104" s="34"/>
     </row>
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="76"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="63"/>
+      <c r="A105" s="75"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="77"/>
       <c r="E105" s="1">
         <v>10</v>
       </c>
@@ -5613,21 +5677,21 @@
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="77"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="50"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="54"/>
       <c r="O105" s="57"/>
-      <c r="P105" s="66"/>
-      <c r="Q105" s="66"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
       <c r="R105" s="34"/>
     </row>
     <row r="106" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="76"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="63"/>
+      <c r="A106" s="75"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="77"/>
       <c r="E106" s="1">
         <v>11</v>
       </c>
@@ -5637,21 +5701,21 @@
       <c r="G106" s="21"/>
       <c r="H106" s="29"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="55"/>
-      <c r="N106" s="50"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="54"/>
       <c r="O106" s="57"/>
-      <c r="P106" s="66"/>
-      <c r="Q106" s="66"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="64"/>
       <c r="R106" s="34"/>
     </row>
     <row r="107" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="76"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="63"/>
+      <c r="A107" s="75"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="77"/>
       <c r="E107" s="1">
         <v>12</v>
       </c>
@@ -5665,27 +5729,27 @@
         <v>70</v>
       </c>
       <c r="I107" s="5"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="65"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="50"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="54"/>
       <c r="O107" s="57"/>
-      <c r="P107" s="66"/>
-      <c r="Q107" s="66"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="64"/>
       <c r="R107" s="34"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="47">
+      <c r="A108" s="67">
         <v>8</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C108" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E108" s="13">
@@ -5698,43 +5762,43 @@
       <c r="H108" s="25"/>
       <c r="I108" s="28"/>
       <c r="J108" s="32">
-        <f t="shared" ref="J108:J127" si="16">+IF(I108="OK",1,(IF(I108="No Ok",1,0)))</f>
+        <f t="shared" ref="J108" si="16">+IF(I108="OK",1,(IF(I108="No Ok",1,0)))</f>
         <v>0</v>
       </c>
       <c r="K108" s="32">
-        <f t="shared" ref="K108:K127" si="17">+IF(I108="OK",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="49">
+        <f t="shared" ref="K108" si="17">+IF(I108="OK",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="53">
         <f>+(COUNTIF(J108:J127,1))</f>
         <v>0</v>
       </c>
-      <c r="M108" s="54">
+      <c r="M108" s="50">
         <f>+COUNT(E108:E127)</f>
         <v>20</v>
       </c>
-      <c r="N108" s="49">
+      <c r="N108" s="53">
         <f>+(COUNTIF(K108:K127,1))</f>
         <v>0</v>
       </c>
       <c r="O108" s="56">
         <v>0</v>
       </c>
-      <c r="P108" s="43">
+      <c r="P108" s="63">
         <f>+L108/M108</f>
         <v>0</v>
       </c>
-      <c r="Q108" s="45">
+      <c r="Q108" s="59">
         <f>+N108/M108</f>
         <v>0</v>
       </c>
       <c r="R108" s="33"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="64"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="52"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="72"/>
       <c r="E109" s="1">
         <v>2</v>
       </c>
@@ -5748,21 +5812,21 @@
         <v>34</v>
       </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="50"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="54"/>
       <c r="O109" s="57"/>
-      <c r="P109" s="66"/>
-      <c r="Q109" s="67"/>
+      <c r="P109" s="64"/>
+      <c r="Q109" s="60"/>
       <c r="R109" s="31"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="52"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="1">
         <v>3</v>
       </c>
@@ -5774,21 +5838,21 @@
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="50"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="54"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="54"/>
       <c r="O110" s="57"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="67"/>
+      <c r="P110" s="64"/>
+      <c r="Q110" s="60"/>
       <c r="R110" s="31"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="72"/>
       <c r="E111" s="1">
         <v>4</v>
       </c>
@@ -5800,21 +5864,21 @@
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="50"/>
-      <c r="M111" s="55"/>
-      <c r="N111" s="50"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="54"/>
       <c r="O111" s="57"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="67"/>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="60"/>
       <c r="R111" s="31"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="52"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="72"/>
       <c r="E112" s="1">
         <v>5</v>
       </c>
@@ -5826,21 +5890,21 @@
       </c>
       <c r="H112" s="29"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="55"/>
-      <c r="N112" s="50"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="54"/>
       <c r="O112" s="57"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="67"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="60"/>
       <c r="R112" s="31"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="64"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="52"/>
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="72"/>
       <c r="E113" s="1">
         <v>6</v>
       </c>
@@ -5852,21 +5916,21 @@
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="50"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="50"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="54"/>
       <c r="O113" s="57"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="67"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="60"/>
       <c r="R113" s="31"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="64"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="52"/>
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="72"/>
       <c r="E114" s="1">
         <v>7</v>
       </c>
@@ -5878,21 +5942,21 @@
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="65"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="50"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="50"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="54"/>
       <c r="O114" s="57"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="67"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="60"/>
       <c r="R114" s="31"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="52"/>
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="72"/>
       <c r="E115" s="1">
         <v>8</v>
       </c>
@@ -5904,47 +5968,47 @@
       </c>
       <c r="H115" s="12"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="50"/>
-      <c r="M115" s="55"/>
-      <c r="N115" s="50"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="54"/>
       <c r="O115" s="57"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="67"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="60"/>
       <c r="R115" s="31"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="52"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="72"/>
       <c r="E116" s="1">
         <v>9</v>
       </c>
       <c r="F116" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G116" s="68" t="s">
+      <c r="G116" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H116" s="29"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="55"/>
-      <c r="N116" s="50"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="54"/>
       <c r="O116" s="57"/>
-      <c r="P116" s="66"/>
-      <c r="Q116" s="67"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="60"/>
       <c r="R116" s="31"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="64"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="52"/>
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="72"/>
       <c r="E117" s="1">
         <v>10</v>
       </c>
@@ -5956,21 +6020,21 @@
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="50"/>
-      <c r="M117" s="55"/>
-      <c r="N117" s="50"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="54"/>
       <c r="O117" s="57"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="67"/>
+      <c r="P117" s="64"/>
+      <c r="Q117" s="60"/>
       <c r="R117" s="31"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="52"/>
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="72"/>
       <c r="E118" s="1">
         <v>11</v>
       </c>
@@ -5982,21 +6046,21 @@
       </c>
       <c r="H118" s="29"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="65"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="50"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="50"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="54"/>
       <c r="O118" s="57"/>
-      <c r="P118" s="66"/>
-      <c r="Q118" s="67"/>
+      <c r="P118" s="64"/>
+      <c r="Q118" s="60"/>
       <c r="R118" s="31"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="52"/>
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="72"/>
       <c r="E119" s="1">
         <v>12</v>
       </c>
@@ -6010,21 +6074,21 @@
         <v>50</v>
       </c>
       <c r="I119" s="5"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="65"/>
-      <c r="L119" s="50"/>
-      <c r="M119" s="55"/>
-      <c r="N119" s="50"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="54"/>
       <c r="O119" s="57"/>
-      <c r="P119" s="66"/>
-      <c r="Q119" s="67"/>
+      <c r="P119" s="64"/>
+      <c r="Q119" s="60"/>
       <c r="R119" s="31"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="64"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="52"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="72"/>
       <c r="E120" s="1">
         <v>13</v>
       </c>
@@ -6034,21 +6098,21 @@
       <c r="G120" s="21"/>
       <c r="H120" s="12"/>
       <c r="I120" s="5"/>
-      <c r="J120" s="65"/>
-      <c r="K120" s="65"/>
-      <c r="L120" s="50"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="50"/>
+      <c r="J120" s="43"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="54"/>
       <c r="O120" s="57"/>
-      <c r="P120" s="66"/>
-      <c r="Q120" s="67"/>
+      <c r="P120" s="64"/>
+      <c r="Q120" s="60"/>
       <c r="R120" s="31"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="52"/>
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="1">
         <v>14</v>
       </c>
@@ -6060,21 +6124,21 @@
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="5"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
-      <c r="L121" s="50"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="50"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="51"/>
+      <c r="N121" s="54"/>
       <c r="O121" s="57"/>
-      <c r="P121" s="66"/>
-      <c r="Q121" s="67"/>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="60"/>
       <c r="R121" s="31"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="64"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="52"/>
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="72"/>
       <c r="E122" s="1">
         <v>15</v>
       </c>
@@ -6086,21 +6150,21 @@
       </c>
       <c r="H122" s="29"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="65"/>
-      <c r="L122" s="50"/>
-      <c r="M122" s="55"/>
-      <c r="N122" s="50"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="54"/>
       <c r="O122" s="57"/>
-      <c r="P122" s="66"/>
-      <c r="Q122" s="67"/>
+      <c r="P122" s="64"/>
+      <c r="Q122" s="60"/>
       <c r="R122" s="31"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="52"/>
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="72"/>
       <c r="E123" s="1">
         <v>16</v>
       </c>
@@ -6112,21 +6176,21 @@
       </c>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
-      <c r="L123" s="50"/>
-      <c r="M123" s="55"/>
-      <c r="N123" s="50"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="54"/>
       <c r="O123" s="57"/>
-      <c r="P123" s="66"/>
-      <c r="Q123" s="67"/>
+      <c r="P123" s="64"/>
+      <c r="Q123" s="60"/>
       <c r="R123" s="31"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="64"/>
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="52"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="1">
         <v>17</v>
       </c>
@@ -6136,21 +6200,21 @@
       <c r="G124" s="21"/>
       <c r="H124" s="29"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="50"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="50"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="54"/>
+      <c r="M124" s="51"/>
+      <c r="N124" s="54"/>
       <c r="O124" s="57"/>
-      <c r="P124" s="66"/>
-      <c r="Q124" s="67"/>
+      <c r="P124" s="64"/>
+      <c r="Q124" s="60"/>
       <c r="R124" s="31"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="48"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="52"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="72"/>
       <c r="E125" s="1">
         <v>18</v>
       </c>
@@ -6163,26 +6227,26 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J125:J128" si="18">+IF(I125="OK",1,(IF(I125="No Ok",1,0)))</f>
         <v>0</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="50"/>
-      <c r="M125" s="55"/>
-      <c r="N125" s="50"/>
+        <f t="shared" ref="K125:K128" si="19">+IF(I125="OK",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="54"/>
+      <c r="M125" s="51"/>
+      <c r="N125" s="54"/>
       <c r="O125" s="57"/>
-      <c r="P125" s="44"/>
-      <c r="Q125" s="46"/>
+      <c r="P125" s="65"/>
+      <c r="Q125" s="61"/>
       <c r="R125" s="30"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="48"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="52"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="1">
         <v>19</v>
       </c>
@@ -6195,33 +6259,33 @@
       <c r="H126" s="12"/>
       <c r="I126" s="5"/>
       <c r="J126" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K126" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="50"/>
-      <c r="M126" s="55"/>
-      <c r="N126" s="50"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="54"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="54"/>
       <c r="O126" s="57"/>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="46"/>
+      <c r="P126" s="65"/>
+      <c r="Q126" s="61"/>
       <c r="R126" s="30"/>
     </row>
     <row r="127" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="69"/>
+      <c r="A127" s="70"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="73"/>
       <c r="E127" s="6">
         <v>20</v>
       </c>
-      <c r="F127" s="70" t="s">
+      <c r="F127" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G127" s="71" t="s">
+      <c r="G127" s="46" t="s">
         <v>27</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -6229,23 +6293,1175 @@
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K127" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="60"/>
-      <c r="M127" s="72"/>
-      <c r="N127" s="60"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="55"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="55"/>
       <c r="O127" s="58"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="74"/>
-      <c r="R127" s="75"/>
+      <c r="P127" s="66"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="47"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A128" s="67">
+        <v>9</v>
+      </c>
+      <c r="B128" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="13">
+        <v>1</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="24"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="53">
+        <f>+(COUNTIF(J128:J147,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="50">
+        <f>+COUNT(E128:E147)</f>
+        <v>20</v>
+      </c>
+      <c r="N128" s="53">
+        <f>+(COUNTIF(K128:K147,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="56">
+        <v>0</v>
+      </c>
+      <c r="P128" s="63">
+        <f>+L128/M128</f>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="59">
+        <f>+N128/M128</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="33"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A129" s="68"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="5"/>
+      <c r="J129" s="43"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="57"/>
+      <c r="P129" s="64"/>
+      <c r="Q129" s="60"/>
+      <c r="R129" s="31"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A130" s="68"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" s="12"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="54"/>
+      <c r="M130" s="51"/>
+      <c r="N130" s="54"/>
+      <c r="O130" s="57"/>
+      <c r="P130" s="64"/>
+      <c r="Q130" s="60"/>
+      <c r="R130" s="31"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="57"/>
+      <c r="P131" s="64"/>
+      <c r="Q131" s="60"/>
+      <c r="R131" s="31"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A132" s="68"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="1">
+        <v>5</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H132" s="29"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="51"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="57"/>
+      <c r="P132" s="64"/>
+      <c r="Q132" s="60"/>
+      <c r="R132" s="31"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A133" s="68"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="1">
+        <v>6</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="57"/>
+      <c r="P133" s="64"/>
+      <c r="Q133" s="60"/>
+      <c r="R133" s="31"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A134" s="68"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="1">
+        <v>7</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="51"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="57"/>
+      <c r="P134" s="64"/>
+      <c r="Q134" s="60"/>
+      <c r="R134" s="31"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="1">
+        <v>8</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="29">
+        <v>98767898</v>
+      </c>
+      <c r="H135" s="12"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="54"/>
+      <c r="M135" s="51"/>
+      <c r="N135" s="54"/>
+      <c r="O135" s="57"/>
+      <c r="P135" s="64"/>
+      <c r="Q135" s="60"/>
+      <c r="R135" s="31"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="1">
+        <v>9</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="29"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="54"/>
+      <c r="O136" s="57"/>
+      <c r="P136" s="64"/>
+      <c r="Q136" s="60"/>
+      <c r="R136" s="31"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A137" s="68"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="1">
+        <v>10</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="43"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="57"/>
+      <c r="P137" s="64"/>
+      <c r="Q137" s="60"/>
+      <c r="R137" s="31"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A138" s="68"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="1">
+        <v>11</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" s="29"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="51"/>
+      <c r="N138" s="54"/>
+      <c r="O138" s="57"/>
+      <c r="P138" s="64"/>
+      <c r="Q138" s="60"/>
+      <c r="R138" s="31"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="1">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="54"/>
+      <c r="M139" s="51"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="57"/>
+      <c r="P139" s="64"/>
+      <c r="Q139" s="60"/>
+      <c r="R139" s="31"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" s="68"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="1">
+        <v>13</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" s="12"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="54"/>
+      <c r="M140" s="51"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="57"/>
+      <c r="P140" s="64"/>
+      <c r="Q140" s="60"/>
+      <c r="R140" s="31"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="1">
+        <v>14</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G141" s="29">
+        <v>123456</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="54"/>
+      <c r="M141" s="51"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="57"/>
+      <c r="P141" s="64"/>
+      <c r="Q141" s="60"/>
+      <c r="R141" s="31"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="1">
+        <v>15</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H142" s="29"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="54"/>
+      <c r="M142" s="51"/>
+      <c r="N142" s="54"/>
+      <c r="O142" s="57"/>
+      <c r="P142" s="64"/>
+      <c r="Q142" s="60"/>
+      <c r="R142" s="31"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="1">
+        <v>16</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G143" s="21">
+        <v>1712</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="43"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="57"/>
+      <c r="P143" s="64"/>
+      <c r="Q143" s="60"/>
+      <c r="R143" s="31"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="1">
+        <v>17</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="21"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="54"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="57"/>
+      <c r="P144" s="64"/>
+      <c r="Q144" s="60"/>
+      <c r="R144" s="31"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" s="69"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="1">
+        <v>18</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="2">
+        <f t="shared" ref="J145:J147" si="20">+IF(I145="OK",1,(IF(I145="No Ok",1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" ref="K145:K147" si="21">+IF(I145="OK",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="54"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="57"/>
+      <c r="P145" s="65"/>
+      <c r="Q145" s="61"/>
+      <c r="R145" s="30"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" s="69"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="1">
+        <v>19</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="21">
+        <v>1166960007</v>
+      </c>
+      <c r="H146" s="12"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="54"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="57"/>
+      <c r="P146" s="65"/>
+      <c r="Q146" s="61"/>
+      <c r="R146" s="30"/>
+    </row>
+    <row r="147" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="70"/>
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="6">
+        <v>20</v>
+      </c>
+      <c r="F147" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147" s="8"/>
+      <c r="J147" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="55"/>
+      <c r="M147" s="52"/>
+      <c r="N147" s="55"/>
+      <c r="O147" s="58"/>
+      <c r="P147" s="66"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="47"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" s="67">
+        <v>10</v>
+      </c>
+      <c r="B148" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E148" s="13">
+        <v>1</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" s="24"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="32">
+        <f t="shared" ref="J148:J167" si="22">+IF(I148="OK",1,(IF(I148="No Ok",1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="32">
+        <f t="shared" ref="K148:K167" si="23">+IF(I148="OK",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="53">
+        <f>+(COUNTIF(J148:J167,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M148" s="50">
+        <f>+COUNT(E148:E167)</f>
+        <v>20</v>
+      </c>
+      <c r="N148" s="53">
+        <f>+(COUNTIF(K148:K167,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O148" s="56">
+        <v>0</v>
+      </c>
+      <c r="P148" s="63">
+        <f>+L148/M148</f>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="59">
+        <f>+N148/M148</f>
+        <v>0</v>
+      </c>
+      <c r="R148" s="33"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" s="68"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="72"/>
+      <c r="E149" s="1">
+        <v>2</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="51"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="57"/>
+      <c r="P149" s="64"/>
+      <c r="Q149" s="60"/>
+      <c r="R149" s="31"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A150" s="68"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="72"/>
+      <c r="E150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H150" s="12"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="51"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="57"/>
+      <c r="P150" s="64"/>
+      <c r="Q150" s="60"/>
+      <c r="R150" s="31"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" s="12"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="43"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="51"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="57"/>
+      <c r="P151" s="64"/>
+      <c r="Q151" s="60"/>
+      <c r="R151" s="31"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" s="29"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="57"/>
+      <c r="P152" s="64"/>
+      <c r="Q152" s="60"/>
+      <c r="R152" s="31"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="1">
+        <v>6</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="54"/>
+      <c r="O153" s="57"/>
+      <c r="P153" s="64"/>
+      <c r="Q153" s="60"/>
+      <c r="R153" s="31"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="1">
+        <v>7</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" s="12"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="43"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="54"/>
+      <c r="M154" s="51"/>
+      <c r="N154" s="54"/>
+      <c r="O154" s="57"/>
+      <c r="P154" s="64"/>
+      <c r="Q154" s="60"/>
+      <c r="R154" s="31"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="1">
+        <v>8</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" s="29">
+        <v>98767898</v>
+      </c>
+      <c r="H155" s="12"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="43"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="54"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="54"/>
+      <c r="O155" s="57"/>
+      <c r="P155" s="64"/>
+      <c r="Q155" s="60"/>
+      <c r="R155" s="31"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="1">
+        <v>9</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G156" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156" s="29"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="54"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="54"/>
+      <c r="O156" s="57"/>
+      <c r="P156" s="64"/>
+      <c r="Q156" s="60"/>
+      <c r="R156" s="31"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="1">
+        <v>10</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="43"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="54"/>
+      <c r="O157" s="57"/>
+      <c r="P157" s="64"/>
+      <c r="Q157" s="60"/>
+      <c r="R157" s="31"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="1">
+        <v>11</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H158" s="29"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="54"/>
+      <c r="M158" s="51"/>
+      <c r="N158" s="54"/>
+      <c r="O158" s="57"/>
+      <c r="P158" s="64"/>
+      <c r="Q158" s="60"/>
+      <c r="R158" s="31"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="1">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I159" s="5"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="54"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="54"/>
+      <c r="O159" s="57"/>
+      <c r="P159" s="64"/>
+      <c r="Q159" s="60"/>
+      <c r="R159" s="31"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="1">
+        <v>13</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H160" s="12"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="54"/>
+      <c r="M160" s="51"/>
+      <c r="N160" s="54"/>
+      <c r="O160" s="57"/>
+      <c r="P160" s="64"/>
+      <c r="Q160" s="60"/>
+      <c r="R160" s="31"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="1">
+        <v>14</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G161" s="29">
+        <v>123456</v>
+      </c>
+      <c r="H161" s="12"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="43"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="54"/>
+      <c r="M161" s="51"/>
+      <c r="N161" s="54"/>
+      <c r="O161" s="57"/>
+      <c r="P161" s="64"/>
+      <c r="Q161" s="60"/>
+      <c r="R161" s="31"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="1">
+        <v>15</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H162" s="29"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="54"/>
+      <c r="M162" s="51"/>
+      <c r="N162" s="54"/>
+      <c r="O162" s="57"/>
+      <c r="P162" s="64"/>
+      <c r="Q162" s="60"/>
+      <c r="R162" s="31"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="1">
+        <v>16</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G163" s="21">
+        <v>1712</v>
+      </c>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="43"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="54"/>
+      <c r="M163" s="51"/>
+      <c r="N163" s="54"/>
+      <c r="O163" s="57"/>
+      <c r="P163" s="64"/>
+      <c r="Q163" s="60"/>
+      <c r="R163" s="31"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="1">
+        <v>17</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G164" s="21"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="43"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="54"/>
+      <c r="M164" s="51"/>
+      <c r="N164" s="54"/>
+      <c r="O164" s="57"/>
+      <c r="P164" s="64"/>
+      <c r="Q164" s="60"/>
+      <c r="R164" s="31"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A165" s="69"/>
+      <c r="B165" s="69"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="1">
+        <v>18</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L165" s="54"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="54"/>
+      <c r="O165" s="57"/>
+      <c r="P165" s="65"/>
+      <c r="Q165" s="61"/>
+      <c r="R165" s="30"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A166" s="69"/>
+      <c r="B166" s="69"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="72"/>
+      <c r="E166" s="1">
+        <v>19</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G166" s="21">
+        <v>1166960007</v>
+      </c>
+      <c r="H166" s="12"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L166" s="54"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="54"/>
+      <c r="O166" s="57"/>
+      <c r="P166" s="65"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="30"/>
+    </row>
+    <row r="167" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="70"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="6">
+        <v>20</v>
+      </c>
+      <c r="F167" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G167" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167" s="8"/>
+      <c r="J167" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L167" s="55"/>
+      <c r="M167" s="52"/>
+      <c r="N167" s="55"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="66"/>
+      <c r="Q167" s="62"/>
+      <c r="R167" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="111">
+    <mergeCell ref="M128:M147"/>
+    <mergeCell ref="N128:N147"/>
+    <mergeCell ref="O128:O147"/>
+    <mergeCell ref="P128:P147"/>
+    <mergeCell ref="Q128:Q147"/>
+    <mergeCell ref="A128:A147"/>
+    <mergeCell ref="B128:B147"/>
+    <mergeCell ref="C128:C147"/>
+    <mergeCell ref="D128:D147"/>
+    <mergeCell ref="L128:L147"/>
     <mergeCell ref="M108:M127"/>
     <mergeCell ref="N108:N127"/>
     <mergeCell ref="O108:O127"/>
@@ -6256,91 +7472,101 @@
     <mergeCell ref="C108:C127"/>
     <mergeCell ref="D108:D127"/>
     <mergeCell ref="L108:L127"/>
-    <mergeCell ref="M96:M107"/>
-    <mergeCell ref="N96:N107"/>
-    <mergeCell ref="O96:O107"/>
-    <mergeCell ref="P96:P107"/>
-    <mergeCell ref="Q96:Q107"/>
-    <mergeCell ref="A96:A107"/>
-    <mergeCell ref="B96:B107"/>
-    <mergeCell ref="C96:C107"/>
-    <mergeCell ref="D96:D107"/>
-    <mergeCell ref="L96:L107"/>
-    <mergeCell ref="M84:M95"/>
-    <mergeCell ref="N84:N95"/>
-    <mergeCell ref="O84:O95"/>
-    <mergeCell ref="P84:P95"/>
-    <mergeCell ref="Q84:Q95"/>
-    <mergeCell ref="A84:A95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C95"/>
-    <mergeCell ref="D84:D95"/>
-    <mergeCell ref="L84:L95"/>
-    <mergeCell ref="M72:M83"/>
-    <mergeCell ref="N72:N83"/>
-    <mergeCell ref="O72:O83"/>
-    <mergeCell ref="P72:P83"/>
-    <mergeCell ref="Q72:Q83"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="B72:B83"/>
-    <mergeCell ref="C72:C83"/>
-    <mergeCell ref="D72:D83"/>
-    <mergeCell ref="L72:L83"/>
-    <mergeCell ref="M60:M71"/>
-    <mergeCell ref="N60:N71"/>
-    <mergeCell ref="O60:O71"/>
-    <mergeCell ref="P60:P71"/>
-    <mergeCell ref="Q60:Q71"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="C60:C71"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="L60:L71"/>
-    <mergeCell ref="M48:M59"/>
-    <mergeCell ref="N48:N59"/>
-    <mergeCell ref="O48:O59"/>
-    <mergeCell ref="P48:P59"/>
-    <mergeCell ref="Q48:Q59"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C59"/>
-    <mergeCell ref="D48:D59"/>
-    <mergeCell ref="L48:L59"/>
-    <mergeCell ref="M36:M47"/>
-    <mergeCell ref="N36:N47"/>
-    <mergeCell ref="O36:O47"/>
-    <mergeCell ref="P36:P47"/>
-    <mergeCell ref="Q36:Q47"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="B36:B47"/>
-    <mergeCell ref="C36:C47"/>
-    <mergeCell ref="D36:D47"/>
-    <mergeCell ref="L36:L47"/>
-    <mergeCell ref="M24:M35"/>
-    <mergeCell ref="N24:N35"/>
-    <mergeCell ref="O24:O35"/>
-    <mergeCell ref="P24:P35"/>
-    <mergeCell ref="Q24:Q35"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="D24:D35"/>
-    <mergeCell ref="L24:L35"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="M12:M23"/>
-    <mergeCell ref="N12:N23"/>
-    <mergeCell ref="O12:O23"/>
-    <mergeCell ref="P12:P23"/>
     <mergeCell ref="Q12:Q23"/>
     <mergeCell ref="A12:A23"/>
     <mergeCell ref="B12:B23"/>
     <mergeCell ref="C12:C23"/>
     <mergeCell ref="D12:D23"/>
     <mergeCell ref="L12:L23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="M12:M23"/>
+    <mergeCell ref="N12:N23"/>
+    <mergeCell ref="O12:O23"/>
+    <mergeCell ref="P12:P23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="D24:D35"/>
+    <mergeCell ref="L24:L35"/>
+    <mergeCell ref="M24:M35"/>
+    <mergeCell ref="N24:N35"/>
+    <mergeCell ref="O24:O35"/>
+    <mergeCell ref="P24:P35"/>
+    <mergeCell ref="Q24:Q35"/>
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="B36:B47"/>
+    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="D36:D47"/>
+    <mergeCell ref="L36:L47"/>
+    <mergeCell ref="M36:M47"/>
+    <mergeCell ref="N36:N47"/>
+    <mergeCell ref="O36:O47"/>
+    <mergeCell ref="P36:P47"/>
+    <mergeCell ref="Q36:Q47"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="D48:D59"/>
+    <mergeCell ref="L48:L59"/>
+    <mergeCell ref="M48:M59"/>
+    <mergeCell ref="N48:N59"/>
+    <mergeCell ref="O48:O59"/>
+    <mergeCell ref="P48:P59"/>
+    <mergeCell ref="Q48:Q59"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="C60:C71"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="L60:L71"/>
+    <mergeCell ref="M60:M71"/>
+    <mergeCell ref="N60:N71"/>
+    <mergeCell ref="O60:O71"/>
+    <mergeCell ref="P60:P71"/>
+    <mergeCell ref="Q60:Q71"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="C72:C83"/>
+    <mergeCell ref="D72:D83"/>
+    <mergeCell ref="L72:L83"/>
+    <mergeCell ref="M72:M83"/>
+    <mergeCell ref="N72:N83"/>
+    <mergeCell ref="O72:O83"/>
+    <mergeCell ref="P72:P83"/>
+    <mergeCell ref="Q72:Q83"/>
+    <mergeCell ref="A84:A95"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C95"/>
+    <mergeCell ref="D84:D95"/>
+    <mergeCell ref="L84:L95"/>
+    <mergeCell ref="M84:M95"/>
+    <mergeCell ref="N84:N95"/>
+    <mergeCell ref="O84:O95"/>
+    <mergeCell ref="P84:P95"/>
+    <mergeCell ref="Q84:Q95"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="C96:C107"/>
+    <mergeCell ref="D96:D107"/>
+    <mergeCell ref="L96:L107"/>
+    <mergeCell ref="M96:M107"/>
+    <mergeCell ref="N96:N107"/>
+    <mergeCell ref="O96:O107"/>
+    <mergeCell ref="P96:P107"/>
+    <mergeCell ref="Q96:Q107"/>
+    <mergeCell ref="A148:A167"/>
+    <mergeCell ref="B148:B167"/>
+    <mergeCell ref="C148:C167"/>
+    <mergeCell ref="D148:D167"/>
+    <mergeCell ref="L148:L167"/>
+    <mergeCell ref="M148:M167"/>
+    <mergeCell ref="N148:N167"/>
+    <mergeCell ref="O148:O167"/>
+    <mergeCell ref="P148:P167"/>
+    <mergeCell ref="Q148:Q167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I167">
       <formula1>$I$9:$I$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -6351,10 +7577,13 @@
     <hyperlink ref="G68" r:id="rId4"/>
     <hyperlink ref="G92" r:id="rId5"/>
     <hyperlink ref="G104" r:id="rId6"/>
-    <hyperlink ref="G116" r:id="rId7"/>
+    <hyperlink ref="G156" r:id="rId7"/>
+    <hyperlink ref="G116" r:id="rId8"/>
+    <hyperlink ref="G136" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>